--- a/Trauma Proxy/Trauma proxy .xlsx
+++ b/Trauma Proxy/Trauma proxy .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b4e8b6e85b0d189b/Desktop/Research Work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="156" documentId="14_{3FBBFC99-DAEA-43BE-BAF3-A881DEDFED15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B13412F6-472D-421F-BA71-054F9EC2F96E}"/>
+  <xr:revisionPtr revIDLastSave="170" documentId="14_{3FBBFC99-DAEA-43BE-BAF3-A881DEDFED15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB814B5D-07CE-48C3-8504-778A4D4ACCC0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C2AE1455-EA07-4A37-8728-BD945DB6EC24}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="105">
   <si>
     <t>Title</t>
   </si>
@@ -763,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04433257-4165-4719-A0D4-D8A76B2B7915}">
   <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="O60" sqref="O60"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2237,7 +2237,7 @@
         <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F36">
         <v>7450</v>
@@ -2256,6 +2256,12 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="s">
+        <v>74</v>
+      </c>
       <c r="D37">
         <v>7150</v>
       </c>
@@ -2276,6 +2282,12 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" t="s">
+        <v>74</v>
+      </c>
       <c r="D38">
         <v>6350</v>
       </c>
@@ -2297,6 +2309,12 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" t="s">
+        <v>74</v>
+      </c>
       <c r="D39">
         <v>5550</v>
       </c>
@@ -2312,6 +2330,12 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" t="s">
+        <v>74</v>
+      </c>
       <c r="D40">
         <v>5450</v>
       </c>
@@ -2329,6 +2353,12 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" t="s">
+        <v>74</v>
+      </c>
       <c r="D41">
         <v>5350</v>
       </c>
@@ -2347,6 +2377,12 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
+      <c r="B42" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" t="s">
+        <v>74</v>
+      </c>
       <c r="D42">
         <v>5350</v>
       </c>
@@ -2364,6 +2400,12 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" t="s">
+        <v>74</v>
+      </c>
       <c r="D43">
         <v>5350</v>
       </c>
@@ -2378,6 +2420,12 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" t="s">
+        <v>74</v>
+      </c>
       <c r="D44">
         <v>5350</v>
       </c>
@@ -2395,6 +2443,12 @@
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" t="s">
+        <v>74</v>
+      </c>
       <c r="D45">
         <v>5350</v>
       </c>
@@ -2409,6 +2463,12 @@
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" t="s">
+        <v>74</v>
+      </c>
       <c r="D46">
         <v>5350</v>
       </c>
@@ -2423,6 +2483,12 @@
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" t="s">
+        <v>74</v>
+      </c>
       <c r="D47">
         <v>5350</v>
       </c>
@@ -2438,6 +2504,12 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
+      <c r="B48" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" t="s">
+        <v>74</v>
+      </c>
       <c r="D48">
         <v>5250</v>
       </c>
@@ -2455,6 +2527,12 @@
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" t="s">
+        <v>74</v>
+      </c>
       <c r="D49">
         <v>5250</v>
       </c>
@@ -2469,6 +2547,12 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" t="s">
+        <v>74</v>
+      </c>
       <c r="D50">
         <v>5250</v>
       </c>
@@ -2486,6 +2570,12 @@
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" t="s">
+        <v>74</v>
+      </c>
       <c r="D51">
         <v>5150</v>
       </c>
@@ -2503,6 +2593,12 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" t="s">
+        <v>74</v>
+      </c>
       <c r="D52">
         <v>4950</v>
       </c>
@@ -2520,6 +2616,12 @@
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" t="s">
+        <v>74</v>
+      </c>
       <c r="D53">
         <v>4950</v>
       </c>
@@ -2538,6 +2640,12 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
+      <c r="B54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" t="s">
+        <v>74</v>
+      </c>
       <c r="D54">
         <v>4950</v>
       </c>
@@ -2556,6 +2664,12 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
+      <c r="B55" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" t="s">
+        <v>74</v>
+      </c>
       <c r="D55">
         <v>4950</v>
       </c>
@@ -2573,6 +2687,12 @@
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" t="s">
+        <v>74</v>
+      </c>
       <c r="D56">
         <v>4950</v>
       </c>
@@ -2590,6 +2710,12 @@
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" t="s">
+        <v>74</v>
+      </c>
       <c r="D57">
         <v>4950</v>
       </c>
@@ -2607,6 +2733,12 @@
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" t="s">
+        <v>74</v>
+      </c>
       <c r="D58">
         <v>4950</v>
       </c>
@@ -2624,6 +2756,12 @@
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" t="s">
+        <v>74</v>
+      </c>
       <c r="D59">
         <v>4950</v>
       </c>
